--- a/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\Backup\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\Backup\leavebalance\06\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C14A3B-E062-493E-BE61-FBD1F95D97C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F2DEBE-E9C0-4192-8EB8-FBD5841C98F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LeaveBalance" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeaveBalance!$C$1:$C$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeaveBalance!$A$1:$V$124</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="277">
   <si>
     <t>Test Case</t>
   </si>
@@ -1210,9 +1210,6 @@
   </si>
   <si>
     <t>LeaveBalance_08</t>
-  </si>
-  <si>
-    <t>LeaveBalance_09</t>
   </si>
   <si>
     <t>LeaveBalance_10</t>
@@ -1598,10 +1595,19 @@
     <t>CustomLeaveCycleMonth</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>LeaveBalance_09</t>
   </si>
 </sst>
 </file>
@@ -1968,11 +1974,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2002,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2026,10 +2033,10 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -2058,16 +2065,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>273</v>
@@ -2076,7 +2083,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>21</v>
@@ -2126,16 +2133,16 @@
         <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>146</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>273</v>
@@ -2144,7 +2151,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>21</v>
@@ -2194,16 +2201,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>147</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>273</v>
@@ -2212,7 +2219,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>21</v>
@@ -2262,16 +2269,16 @@
         <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>273</v>
@@ -2280,7 +2287,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>21</v>
@@ -2330,16 +2337,16 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>273</v>
@@ -2348,7 +2355,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>21</v>
@@ -2398,16 +2405,16 @@
         <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>150</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>273</v>
@@ -2416,7 +2423,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>21</v>
@@ -2466,16 +2473,16 @@
         <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>273</v>
@@ -2484,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>21</v>
@@ -2534,16 +2541,16 @@
         <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>273</v>
@@ -2552,7 +2559,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>21</v>
@@ -2602,16 +2609,16 @@
         <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>273</v>
@@ -2620,7 +2627,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>21</v>
@@ -2670,16 +2677,16 @@
         <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>273</v>
@@ -2688,7 +2695,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>21</v>
@@ -2738,16 +2745,16 @@
         <v>32</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>273</v>
@@ -2756,7 +2763,7 @@
         <v>21</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>21</v>
@@ -2806,16 +2813,16 @@
         <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>273</v>
@@ -2824,7 +2831,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>21</v>
@@ -2874,16 +2881,16 @@
         <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>273</v>
@@ -2892,7 +2899,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>21</v>
@@ -2942,16 +2949,16 @@
         <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>273</v>
@@ -2960,7 +2967,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>21</v>
@@ -3010,16 +3017,16 @@
         <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>273</v>
@@ -3028,7 +3035,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>21</v>
@@ -3078,16 +3085,16 @@
         <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>273</v>
@@ -3096,7 +3103,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>21</v>
@@ -3146,16 +3153,16 @@
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>273</v>
@@ -3164,7 +3171,7 @@
         <v>21</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>21</v>
@@ -3214,16 +3221,16 @@
         <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>273</v>
@@ -3232,7 +3239,7 @@
         <v>21</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>21</v>
@@ -3282,16 +3289,16 @@
         <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>273</v>
@@ -3300,7 +3307,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>21</v>
@@ -3350,16 +3357,16 @@
         <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>273</v>
@@ -3368,7 +3375,7 @@
         <v>21</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>21</v>
@@ -3418,16 +3425,16 @@
         <v>42</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>273</v>
@@ -3436,7 +3443,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>21</v>
@@ -3486,16 +3493,16 @@
         <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>273</v>
@@ -3504,7 +3511,7 @@
         <v>21</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>21</v>
@@ -3554,16 +3561,16 @@
         <v>44</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>273</v>
@@ -3572,7 +3579,7 @@
         <v>21</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>21</v>
@@ -3622,16 +3629,16 @@
         <v>45</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>273</v>
@@ -3640,7 +3647,7 @@
         <v>21</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>21</v>
@@ -3690,16 +3697,16 @@
         <v>46</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>273</v>
@@ -3708,7 +3715,7 @@
         <v>21</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>21</v>
@@ -3758,16 +3765,16 @@
         <v>47</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>273</v>
@@ -3776,7 +3783,7 @@
         <v>21</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>21</v>
@@ -3826,16 +3833,16 @@
         <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>273</v>
@@ -3844,7 +3851,7 @@
         <v>21</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>21</v>
@@ -3894,16 +3901,16 @@
         <v>49</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>273</v>
@@ -3912,7 +3919,7 @@
         <v>21</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>21</v>
@@ -3962,16 +3969,16 @@
         <v>50</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>273</v>
@@ -3980,7 +3987,7 @@
         <v>21</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>21</v>
@@ -4030,16 +4037,16 @@
         <v>51</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>273</v>
@@ -4048,7 +4055,7 @@
         <v>21</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>21</v>
@@ -4098,16 +4105,16 @@
         <v>52</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>273</v>
@@ -4116,7 +4123,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>21</v>
@@ -4166,16 +4173,16 @@
         <v>53</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>273</v>
@@ -4184,7 +4191,7 @@
         <v>21</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>21</v>
@@ -4234,16 +4241,16 @@
         <v>54</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>273</v>
@@ -4252,7 +4259,7 @@
         <v>21</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>21</v>
@@ -4302,16 +4309,16 @@
         <v>55</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>273</v>
@@ -4320,7 +4327,7 @@
         <v>21</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>21</v>
@@ -4370,16 +4377,16 @@
         <v>56</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>273</v>
@@ -4388,7 +4395,7 @@
         <v>21</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>21</v>
@@ -4438,16 +4445,16 @@
         <v>57</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>273</v>
@@ -4456,7 +4463,7 @@
         <v>21</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>21</v>
@@ -4506,16 +4513,16 @@
         <v>58</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>273</v>
@@ -4524,7 +4531,7 @@
         <v>21</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>21</v>
@@ -4574,16 +4581,16 @@
         <v>59</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>273</v>
@@ -4592,7 +4599,7 @@
         <v>21</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>21</v>
@@ -4642,16 +4649,16 @@
         <v>60</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>273</v>
@@ -4660,7 +4667,7 @@
         <v>21</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>21</v>
@@ -4710,16 +4717,16 @@
         <v>61</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>273</v>
@@ -4728,7 +4735,7 @@
         <v>21</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>21</v>
@@ -4778,16 +4785,16 @@
         <v>62</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>273</v>
@@ -4796,7 +4803,7 @@
         <v>21</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>21</v>
@@ -4838,7 +4845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="331.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
@@ -4846,16 +4853,16 @@
         <v>63</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>273</v>
@@ -4864,7 +4871,7 @@
         <v>21</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>22</v>
@@ -4906,7 +4913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -4914,16 +4921,16 @@
         <v>64</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>273</v>
@@ -4932,7 +4939,7 @@
         <v>21</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>22</v>
@@ -4974,7 +4981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>19</v>
       </c>
@@ -4982,16 +4989,16 @@
         <v>65</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>273</v>
@@ -5000,7 +5007,7 @@
         <v>21</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>22</v>
@@ -5042,7 +5049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>19</v>
       </c>
@@ -5050,16 +5057,16 @@
         <v>66</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>273</v>
@@ -5068,7 +5075,7 @@
         <v>21</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>22</v>
@@ -5110,7 +5117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
@@ -5118,16 +5125,16 @@
         <v>67</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>273</v>
@@ -5136,7 +5143,7 @@
         <v>21</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>22</v>
@@ -5178,7 +5185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>19</v>
       </c>
@@ -5186,16 +5193,16 @@
         <v>68</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>273</v>
@@ -5204,7 +5211,7 @@
         <v>21</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>22</v>
@@ -5246,7 +5253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>19</v>
       </c>
@@ -5254,16 +5261,16 @@
         <v>69</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>273</v>
@@ -5272,7 +5279,7 @@
         <v>21</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>22</v>
@@ -5314,7 +5321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>19</v>
       </c>
@@ -5322,16 +5329,16 @@
         <v>70</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>273</v>
@@ -5340,7 +5347,7 @@
         <v>21</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>22</v>
@@ -5382,7 +5389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
@@ -5390,16 +5397,16 @@
         <v>71</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>273</v>
@@ -5408,7 +5415,7 @@
         <v>21</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>22</v>
@@ -5450,7 +5457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>19</v>
       </c>
@@ -5458,16 +5465,16 @@
         <v>72</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>273</v>
@@ -5476,7 +5483,7 @@
         <v>21</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>22</v>
@@ -5518,7 +5525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="388.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>19</v>
       </c>
@@ -5526,16 +5533,16 @@
         <v>73</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>273</v>
@@ -5544,7 +5551,7 @@
         <v>21</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>22</v>
@@ -5586,7 +5593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>19</v>
       </c>
@@ -5594,16 +5601,16 @@
         <v>74</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>273</v>
@@ -5612,7 +5619,7 @@
         <v>21</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>22</v>
@@ -5654,7 +5661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>19</v>
       </c>
@@ -5662,16 +5669,16 @@
         <v>75</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>273</v>
@@ -5680,7 +5687,7 @@
         <v>21</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>22</v>
@@ -5722,7 +5729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>19</v>
       </c>
@@ -5730,16 +5737,16 @@
         <v>76</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>273</v>
@@ -5748,7 +5755,7 @@
         <v>21</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>22</v>
@@ -5790,7 +5797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>19</v>
       </c>
@@ -5798,16 +5805,16 @@
         <v>77</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>273</v>
@@ -5816,7 +5823,7 @@
         <v>21</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>22</v>
@@ -5858,7 +5865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>19</v>
       </c>
@@ -5866,16 +5873,16 @@
         <v>78</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>273</v>
@@ -5884,7 +5891,7 @@
         <v>21</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>22</v>
@@ -5926,7 +5933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
@@ -5934,16 +5941,16 @@
         <v>79</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>273</v>
@@ -5952,7 +5959,7 @@
         <v>21</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>22</v>
@@ -5994,7 +6001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>19</v>
       </c>
@@ -6002,16 +6009,16 @@
         <v>80</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>273</v>
@@ -6020,7 +6027,7 @@
         <v>21</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>22</v>
@@ -6062,7 +6069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>19</v>
       </c>
@@ -6070,16 +6077,16 @@
         <v>81</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>273</v>
@@ -6088,7 +6095,7 @@
         <v>21</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>22</v>
@@ -6130,7 +6137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>19</v>
       </c>
@@ -6138,16 +6145,16 @@
         <v>82</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>273</v>
@@ -6156,7 +6163,7 @@
         <v>21</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>22</v>
@@ -6198,7 +6205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>19</v>
       </c>
@@ -6206,16 +6213,16 @@
         <v>83</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>273</v>
@@ -6224,7 +6231,7 @@
         <v>21</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>22</v>
@@ -6266,7 +6273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>19</v>
       </c>
@@ -6274,16 +6281,16 @@
         <v>84</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>273</v>
@@ -6292,7 +6299,7 @@
         <v>21</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>22</v>
@@ -6334,7 +6341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>19</v>
       </c>
@@ -6342,16 +6349,16 @@
         <v>85</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>273</v>
@@ -6360,7 +6367,7 @@
         <v>21</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>22</v>
@@ -6402,7 +6409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>19</v>
       </c>
@@ -6410,16 +6417,16 @@
         <v>86</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>273</v>
@@ -6428,7 +6435,7 @@
         <v>21</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>22</v>
@@ -6470,7 +6477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
@@ -6478,16 +6485,16 @@
         <v>87</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>273</v>
@@ -6496,7 +6503,7 @@
         <v>21</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>22</v>
@@ -6538,7 +6545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>19</v>
       </c>
@@ -6546,16 +6553,16 @@
         <v>88</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>273</v>
@@ -6564,7 +6571,7 @@
         <v>21</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>22</v>
@@ -6606,7 +6613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>19</v>
       </c>
@@ -6614,16 +6621,16 @@
         <v>89</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>273</v>
@@ -6632,7 +6639,7 @@
         <v>21</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>22</v>
@@ -6674,7 +6681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>19</v>
       </c>
@@ -6682,16 +6689,16 @@
         <v>90</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>273</v>
@@ -6700,7 +6707,7 @@
         <v>21</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>22</v>
@@ -6742,7 +6749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>19</v>
       </c>
@@ -6750,16 +6757,16 @@
         <v>91</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>273</v>
@@ -6768,7 +6775,7 @@
         <v>21</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>22</v>
@@ -6810,7 +6817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>19</v>
       </c>
@@ -6818,16 +6825,16 @@
         <v>92</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>273</v>
@@ -6836,7 +6843,7 @@
         <v>21</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>22</v>
@@ -6878,7 +6885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>19</v>
       </c>
@@ -6886,16 +6893,16 @@
         <v>93</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>273</v>
@@ -6904,7 +6911,7 @@
         <v>21</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>22</v>
@@ -6946,7 +6953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>19</v>
       </c>
@@ -6954,16 +6961,16 @@
         <v>94</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>273</v>
@@ -6972,7 +6979,7 @@
         <v>21</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>22</v>
@@ -7014,7 +7021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>19</v>
       </c>
@@ -7022,16 +7029,16 @@
         <v>95</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>273</v>
@@ -7040,7 +7047,7 @@
         <v>21</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>22</v>
@@ -7082,7 +7089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>19</v>
       </c>
@@ -7090,16 +7097,16 @@
         <v>96</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>273</v>
@@ -7108,7 +7115,7 @@
         <v>21</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>22</v>
@@ -7150,7 +7157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>19</v>
       </c>
@@ -7158,16 +7165,16 @@
         <v>97</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>273</v>
@@ -7176,7 +7183,7 @@
         <v>21</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>22</v>
@@ -7218,7 +7225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>19</v>
       </c>
@@ -7226,16 +7233,16 @@
         <v>98</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>273</v>
@@ -7244,7 +7251,7 @@
         <v>21</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>22</v>
@@ -7286,7 +7293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>19</v>
       </c>
@@ -7294,16 +7301,16 @@
         <v>99</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>273</v>
@@ -7312,7 +7319,7 @@
         <v>21</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>22</v>
@@ -7354,7 +7361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>19</v>
       </c>
@@ -7362,16 +7369,16 @@
         <v>100</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>273</v>
@@ -7380,7 +7387,7 @@
         <v>21</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>22</v>
@@ -7422,7 +7429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>19</v>
       </c>
@@ -7430,16 +7437,16 @@
         <v>101</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>273</v>
@@ -7448,7 +7455,7 @@
         <v>21</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>22</v>
@@ -7490,7 +7497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>19</v>
       </c>
@@ -7498,16 +7505,16 @@
         <v>102</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>273</v>
@@ -7516,7 +7523,7 @@
         <v>21</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>22</v>
@@ -7558,7 +7565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>19</v>
       </c>
@@ -7566,16 +7573,16 @@
         <v>103</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>273</v>
@@ -7584,7 +7591,7 @@
         <v>21</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>22</v>
@@ -7634,16 +7641,16 @@
         <v>104</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>273</v>
@@ -7652,7 +7659,7 @@
         <v>21</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>21</v>
@@ -7702,16 +7709,16 @@
         <v>105</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>273</v>
@@ -7720,7 +7727,7 @@
         <v>21</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>21</v>
@@ -7770,16 +7777,16 @@
         <v>106</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>273</v>
@@ -7788,7 +7795,7 @@
         <v>21</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>21</v>
@@ -7838,16 +7845,16 @@
         <v>107</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>273</v>
@@ -7856,7 +7863,7 @@
         <v>21</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>21</v>
@@ -7906,16 +7913,16 @@
         <v>108</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>273</v>
@@ -7924,7 +7931,7 @@
         <v>21</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>21</v>
@@ -7974,16 +7981,16 @@
         <v>109</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>273</v>
@@ -7992,7 +7999,7 @@
         <v>21</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>21</v>
@@ -8042,16 +8049,16 @@
         <v>110</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>273</v>
@@ -8060,7 +8067,7 @@
         <v>21</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>21</v>
@@ -8110,16 +8117,16 @@
         <v>111</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>273</v>
@@ -8128,7 +8135,7 @@
         <v>21</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>21</v>
@@ -8178,16 +8185,16 @@
         <v>112</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>273</v>
@@ -8196,7 +8203,7 @@
         <v>21</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>21</v>
@@ -8246,16 +8253,16 @@
         <v>113</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>273</v>
@@ -8264,7 +8271,7 @@
         <v>21</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>21</v>
@@ -8314,16 +8321,16 @@
         <v>114</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>273</v>
@@ -8332,7 +8339,7 @@
         <v>21</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>21</v>
@@ -8382,16 +8389,16 @@
         <v>115</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>273</v>
@@ -8400,7 +8407,7 @@
         <v>21</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>21</v>
@@ -8450,16 +8457,16 @@
         <v>116</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>273</v>
@@ -8468,7 +8475,7 @@
         <v>21</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>21</v>
@@ -8518,16 +8525,16 @@
         <v>117</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>273</v>
@@ -8536,7 +8543,7 @@
         <v>21</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>21</v>
@@ -8586,16 +8593,16 @@
         <v>118</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>273</v>
@@ -8604,7 +8611,7 @@
         <v>21</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>21</v>
@@ -8654,16 +8661,16 @@
         <v>119</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>273</v>
@@ -8672,7 +8679,7 @@
         <v>21</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>21</v>
@@ -8722,16 +8729,16 @@
         <v>120</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>273</v>
@@ -8740,7 +8747,7 @@
         <v>21</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>21</v>
@@ -8790,16 +8797,16 @@
         <v>121</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>273</v>
@@ -8808,7 +8815,7 @@
         <v>21</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>21</v>
@@ -8858,16 +8865,16 @@
         <v>122</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>273</v>
@@ -8876,7 +8883,7 @@
         <v>21</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>21</v>
@@ -8926,16 +8933,16 @@
         <v>123</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>273</v>
@@ -8944,7 +8951,7 @@
         <v>21</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>21</v>
@@ -8994,16 +9001,16 @@
         <v>124</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>273</v>
@@ -9012,7 +9019,7 @@
         <v>21</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>21</v>
@@ -9062,16 +9069,16 @@
         <v>125</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>273</v>
@@ -9080,7 +9087,7 @@
         <v>21</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>21</v>
@@ -9130,16 +9137,16 @@
         <v>126</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>273</v>
@@ -9148,7 +9155,7 @@
         <v>21</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>21</v>
@@ -9198,16 +9205,16 @@
         <v>127</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>273</v>
@@ -9216,7 +9223,7 @@
         <v>21</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>21</v>
@@ -9266,16 +9273,16 @@
         <v>128</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>273</v>
@@ -9284,7 +9291,7 @@
         <v>21</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>21</v>
@@ -9334,16 +9341,16 @@
         <v>129</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>273</v>
@@ -9352,7 +9359,7 @@
         <v>21</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>21</v>
@@ -9402,16 +9409,16 @@
         <v>130</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>273</v>
@@ -9420,7 +9427,7 @@
         <v>21</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>21</v>
@@ -9470,16 +9477,16 @@
         <v>131</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>273</v>
@@ -9488,7 +9495,7 @@
         <v>21</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>21</v>
@@ -9538,16 +9545,16 @@
         <v>132</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>273</v>
@@ -9556,7 +9563,7 @@
         <v>21</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>21</v>
@@ -9606,16 +9613,16 @@
         <v>133</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>273</v>
@@ -9624,7 +9631,7 @@
         <v>21</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>21</v>
@@ -9674,16 +9681,16 @@
         <v>134</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>273</v>
@@ -9692,7 +9699,7 @@
         <v>21</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>21</v>
@@ -9742,16 +9749,16 @@
         <v>135</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>273</v>
@@ -9760,7 +9767,7 @@
         <v>21</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>21</v>
@@ -9810,16 +9817,16 @@
         <v>136</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>273</v>
@@ -9828,7 +9835,7 @@
         <v>21</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>21</v>
@@ -9878,16 +9885,16 @@
         <v>137</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>273</v>
@@ -9896,7 +9903,7 @@
         <v>21</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>21</v>
@@ -9946,16 +9953,16 @@
         <v>138</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>273</v>
@@ -9964,7 +9971,7 @@
         <v>21</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>21</v>
@@ -10014,16 +10021,16 @@
         <v>139</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>273</v>
@@ -10032,7 +10039,7 @@
         <v>21</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>21</v>
@@ -10082,16 +10089,16 @@
         <v>140</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>273</v>
@@ -10100,7 +10107,7 @@
         <v>21</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>21</v>
@@ -10150,16 +10157,16 @@
         <v>141</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>273</v>
@@ -10168,7 +10175,7 @@
         <v>21</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>21</v>
@@ -10218,16 +10225,16 @@
         <v>142</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>273</v>
@@ -10236,7 +10243,7 @@
         <v>21</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>21</v>
@@ -10286,16 +10293,16 @@
         <v>143</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>273</v>
@@ -10304,7 +10311,7 @@
         <v>21</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>21</v>
@@ -10354,16 +10361,16 @@
         <v>144</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>273</v>
@@ -10372,7 +10379,7 @@
         <v>21</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>21</v>
@@ -10415,7 +10422,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C124" xr:uid="{D9540598-72CE-4B81-BB52-FA937447C9F7}"/>
+  <autoFilter ref="A1:V124" xr:uid="{0FA11716-442A-4501-895C-1125CEC517F7}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\Backup\leavebalance\06\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F2DEBE-E9C0-4192-8EB8-FBD5841C98F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BD37D6-C86E-4A20-88D7-2C0584F74AD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaveBalance" sheetId="1" r:id="rId1"/>
+    <sheet name="dummySheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeaveBalance!$A$1:$V$124</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="277">
   <si>
     <t>Test Case</t>
   </si>
@@ -1977,9 +1978,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C124"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2745,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>154</v>
@@ -2813,7 +2814,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>155</v>
@@ -2881,7 +2882,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>156</v>
@@ -2949,7 +2950,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>157</v>
@@ -3017,7 +3018,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>158</v>
@@ -3085,7 +3086,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>159</v>
@@ -3153,7 +3154,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>160</v>
@@ -3221,7 +3222,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>161</v>
@@ -3289,7 +3290,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>162</v>
@@ -3357,7 +3358,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>163</v>
@@ -3425,7 +3426,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>164</v>
@@ -3493,7 +3494,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>165</v>
@@ -3561,7 +3562,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>166</v>
@@ -3629,7 +3630,7 @@
         <v>45</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>167</v>
@@ -3697,7 +3698,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>168</v>
@@ -3765,7 +3766,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>169</v>
@@ -3833,7 +3834,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>170</v>
@@ -3901,7 +3902,7 @@
         <v>49</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>171</v>
@@ -3969,7 +3970,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>172</v>
@@ -4037,7 +4038,7 @@
         <v>51</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>173</v>
@@ -4105,7 +4106,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>174</v>
@@ -4173,7 +4174,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>175</v>
@@ -4241,7 +4242,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>176</v>
@@ -4309,7 +4310,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>177</v>
@@ -4377,7 +4378,7 @@
         <v>56</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>178</v>
@@ -4445,7 +4446,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>179</v>
@@ -4513,7 +4514,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>180</v>
@@ -4581,7 +4582,7 @@
         <v>59</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>181</v>
@@ -4649,7 +4650,7 @@
         <v>60</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>182</v>
@@ -4717,7 +4718,7 @@
         <v>61</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>183</v>
@@ -4785,7 +4786,7 @@
         <v>62</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>184</v>
@@ -7641,7 +7642,7 @@
         <v>104</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>226</v>
@@ -7709,7 +7710,7 @@
         <v>105</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>227</v>
@@ -7777,7 +7778,7 @@
         <v>106</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>228</v>
@@ -7845,7 +7846,7 @@
         <v>107</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>229</v>
@@ -7913,7 +7914,7 @@
         <v>108</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>230</v>
@@ -7981,7 +7982,7 @@
         <v>109</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>231</v>
@@ -8049,7 +8050,7 @@
         <v>110</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>232</v>
@@ -8117,7 +8118,7 @@
         <v>111</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>233</v>
@@ -8185,7 +8186,7 @@
         <v>112</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>234</v>
@@ -8253,7 +8254,7 @@
         <v>113</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>235</v>
@@ -8321,7 +8322,7 @@
         <v>114</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>236</v>
@@ -8389,7 +8390,7 @@
         <v>115</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>237</v>
@@ -8457,7 +8458,7 @@
         <v>116</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>238</v>
@@ -8525,7 +8526,7 @@
         <v>117</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>239</v>
@@ -8593,7 +8594,7 @@
         <v>118</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>240</v>
@@ -8661,7 +8662,7 @@
         <v>119</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>241</v>
@@ -8729,7 +8730,7 @@
         <v>120</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>242</v>
@@ -8797,7 +8798,7 @@
         <v>121</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>243</v>
@@ -8865,7 +8866,7 @@
         <v>122</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>244</v>
@@ -8933,7 +8934,7 @@
         <v>123</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>245</v>
@@ -9001,7 +9002,7 @@
         <v>124</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>246</v>
@@ -9069,7 +9070,7 @@
         <v>125</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>247</v>
@@ -9137,7 +9138,7 @@
         <v>126</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>248</v>
@@ -9205,7 +9206,7 @@
         <v>127</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>249</v>
@@ -9273,7 +9274,7 @@
         <v>128</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>250</v>
@@ -9341,7 +9342,7 @@
         <v>129</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>251</v>
@@ -9409,7 +9410,7 @@
         <v>130</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>252</v>
@@ -9477,7 +9478,7 @@
         <v>131</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>253</v>
@@ -9545,7 +9546,7 @@
         <v>132</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>254</v>
@@ -9613,7 +9614,7 @@
         <v>133</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>255</v>
@@ -9681,7 +9682,7 @@
         <v>134</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>256</v>
@@ -9749,7 +9750,7 @@
         <v>135</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>257</v>
@@ -9817,7 +9818,7 @@
         <v>136</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>258</v>
@@ -9885,7 +9886,7 @@
         <v>137</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>259</v>
@@ -9953,7 +9954,7 @@
         <v>138</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>260</v>
@@ -10021,7 +10022,7 @@
         <v>139</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>261</v>
@@ -10089,7 +10090,7 @@
         <v>140</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>262</v>
@@ -10157,7 +10158,7 @@
         <v>141</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>263</v>
@@ -10225,7 +10226,7 @@
         <v>142</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>264</v>
@@ -10293,7 +10294,7 @@
         <v>143</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>265</v>
@@ -10361,7 +10362,7 @@
         <v>144</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>266</v>
@@ -10433,4 +10434,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F6D715-F1A2-4992-BE3D-118FEE3675AA}">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="119.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3">
+        <v>180</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BD37D6-C86E-4A20-88D7-2C0584F74AD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C85C34-65A3-48D7-A928-BE26A5D8F4E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaveBalance" sheetId="1" r:id="rId1"/>
@@ -1978,9 +1978,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2066,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>145</v>
@@ -2134,7 +2134,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>146</v>
@@ -2202,7 +2202,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>147</v>
@@ -2270,7 +2270,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>148</v>
@@ -2338,7 +2338,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>149</v>
@@ -2406,7 +2406,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>150</v>
@@ -2474,7 +2474,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>151</v>
@@ -2542,7 +2542,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>152</v>
@@ -2610,7 +2610,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>276</v>
@@ -2678,7 +2678,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>153</v>
@@ -2746,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>154</v>
@@ -2814,7 +2814,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>155</v>
@@ -2882,7 +2882,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>156</v>
@@ -2950,7 +2950,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>157</v>
@@ -3018,7 +3018,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>158</v>
@@ -3086,7 +3086,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>159</v>
@@ -3154,7 +3154,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>160</v>
@@ -3222,7 +3222,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>161</v>
@@ -3290,7 +3290,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>162</v>
@@ -3358,7 +3358,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>163</v>
@@ -10440,8 +10440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F6D715-F1A2-4992-BE3D-118FEE3675AA}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C85C34-65A3-48D7-A928-BE26A5D8F4E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A04CD8-4C90-472C-9AD7-B65E8FCFDF05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1979,8 +1979,8 @@
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2800,7 +2800,7 @@
         <v>22</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>21</v>

--- a/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A04CD8-4C90-472C-9AD7-B65E8FCFDF05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952B8024-D371-4471-89FE-6B1AD998CCE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1979,8 +1979,8 @@
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" activeCellId="1" sqref="C41 C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2746,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>154</v>
@@ -2814,7 +2814,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>155</v>
@@ -2882,7 +2882,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>156</v>
@@ -2950,7 +2950,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>157</v>
@@ -3018,7 +3018,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>158</v>
@@ -3086,7 +3086,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>159</v>
@@ -3154,7 +3154,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>160</v>
@@ -3222,7 +3222,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>161</v>
@@ -3290,7 +3290,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>162</v>
@@ -3358,7 +3358,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>163</v>
@@ -4106,7 +4106,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>174</v>
@@ -4174,7 +4174,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>175</v>
@@ -4242,7 +4242,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>176</v>
@@ -4310,7 +4310,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>177</v>
@@ -4378,7 +4378,7 @@
         <v>56</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>178</v>
@@ -4446,7 +4446,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>179</v>
@@ -4514,7 +4514,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>180</v>
@@ -4582,7 +4582,7 @@
         <v>59</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>181</v>
@@ -4650,7 +4650,7 @@
         <v>60</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>182</v>
@@ -4718,7 +4718,7 @@
         <v>61</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>183</v>

--- a/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952B8024-D371-4471-89FE-6B1AD998CCE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1607F1E7-27A4-4E33-8B48-0CC8E1B320CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1979,8 +1979,8 @@
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" activeCellId="1" sqref="C41 C42"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4106,7 +4106,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>174</v>
@@ -4174,7 +4174,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>175</v>
@@ -4242,7 +4242,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>176</v>
@@ -4310,7 +4310,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>177</v>
@@ -4378,7 +4378,7 @@
         <v>56</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>178</v>
@@ -4446,7 +4446,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>179</v>
@@ -4514,7 +4514,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>180</v>
@@ -4582,7 +4582,7 @@
         <v>59</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>181</v>
@@ -4650,7 +4650,7 @@
         <v>60</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>182</v>
@@ -4718,7 +4718,7 @@
         <v>61</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>183</v>
@@ -4786,7 +4786,7 @@
         <v>62</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>184</v>
@@ -7642,7 +7642,7 @@
         <v>104</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>226</v>
@@ -7710,7 +7710,7 @@
         <v>105</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>227</v>
@@ -7778,7 +7778,7 @@
         <v>106</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>228</v>
@@ -7846,7 +7846,7 @@
         <v>107</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>229</v>
@@ -7914,7 +7914,7 @@
         <v>108</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>230</v>
@@ -7982,7 +7982,7 @@
         <v>109</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>231</v>
@@ -8050,7 +8050,7 @@
         <v>110</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>232</v>
@@ -8118,7 +8118,7 @@
         <v>111</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>233</v>
@@ -8186,7 +8186,7 @@
         <v>112</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>234</v>
@@ -8254,7 +8254,7 @@
         <v>113</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>235</v>
@@ -8322,7 +8322,7 @@
         <v>114</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>236</v>
@@ -8390,7 +8390,7 @@
         <v>115</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>237</v>
@@ -8458,7 +8458,7 @@
         <v>116</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>238</v>
@@ -8526,7 +8526,7 @@
         <v>117</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>239</v>
@@ -8594,7 +8594,7 @@
         <v>118</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>240</v>
@@ -8662,7 +8662,7 @@
         <v>119</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>241</v>
@@ -8730,7 +8730,7 @@
         <v>120</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>242</v>
@@ -8798,7 +8798,7 @@
         <v>121</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>243</v>

--- a/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1607F1E7-27A4-4E33-8B48-0CC8E1B320CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E4EFC5-F189-4975-8A31-2E914E5186F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1979,8 +1979,8 @@
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4786,7 +4786,7 @@
         <v>62</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>184</v>
@@ -7642,7 +7642,7 @@
         <v>104</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>226</v>
@@ -7710,7 +7710,7 @@
         <v>105</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>227</v>
@@ -7778,7 +7778,7 @@
         <v>106</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>228</v>
@@ -7846,7 +7846,7 @@
         <v>107</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>229</v>
@@ -7914,7 +7914,7 @@
         <v>108</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>230</v>
@@ -7982,7 +7982,7 @@
         <v>109</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>231</v>
@@ -8050,7 +8050,7 @@
         <v>110</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>232</v>
@@ -8118,7 +8118,7 @@
         <v>111</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>233</v>
@@ -8186,7 +8186,7 @@
         <v>112</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>234</v>
@@ -8254,7 +8254,7 @@
         <v>113</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>235</v>
@@ -8322,7 +8322,7 @@
         <v>114</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>236</v>
@@ -8390,7 +8390,7 @@
         <v>115</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>237</v>
@@ -8458,7 +8458,7 @@
         <v>116</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>238</v>
@@ -8526,7 +8526,7 @@
         <v>117</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>239</v>
@@ -8594,7 +8594,7 @@
         <v>118</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>240</v>
@@ -8662,7 +8662,7 @@
         <v>119</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>241</v>
@@ -8730,7 +8730,7 @@
         <v>120</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>242</v>
@@ -8798,7 +8798,7 @@
         <v>121</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>243</v>
@@ -8866,7 +8866,7 @@
         <v>122</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>244</v>
@@ -8934,7 +8934,7 @@
         <v>123</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>245</v>
@@ -9002,7 +9002,7 @@
         <v>124</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>246</v>
@@ -9070,7 +9070,7 @@
         <v>125</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>247</v>
@@ -9138,7 +9138,7 @@
         <v>126</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>248</v>
@@ -9206,7 +9206,7 @@
         <v>127</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>249</v>
@@ -9274,7 +9274,7 @@
         <v>128</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>250</v>
@@ -9342,7 +9342,7 @@
         <v>129</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>251</v>
@@ -9410,7 +9410,7 @@
         <v>130</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>252</v>
@@ -9478,7 +9478,7 @@
         <v>131</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>253</v>
@@ -9546,7 +9546,7 @@
         <v>132</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>254</v>
@@ -9614,7 +9614,7 @@
         <v>133</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>255</v>
@@ -9682,7 +9682,7 @@
         <v>134</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>256</v>
@@ -9750,7 +9750,7 @@
         <v>135</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>257</v>
@@ -9818,7 +9818,7 @@
         <v>136</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>258</v>
@@ -9886,7 +9886,7 @@
         <v>137</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>259</v>
@@ -9954,7 +9954,7 @@
         <v>138</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>260</v>
@@ -10022,7 +10022,7 @@
         <v>139</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>261</v>
@@ -10090,7 +10090,7 @@
         <v>140</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>262</v>
@@ -10158,7 +10158,7 @@
         <v>141</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>263</v>
@@ -10226,7 +10226,7 @@
         <v>142</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>264</v>
@@ -10294,7 +10294,7 @@
         <v>143</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>265</v>
@@ -10362,7 +10362,7 @@
         <v>144</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>266</v>

--- a/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E4EFC5-F189-4975-8A31-2E914E5186F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A03C5-FDAE-40EA-92BE-9EE97AA97CCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1979,8 +1979,8 @@
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A03C5-FDAE-40EA-92BE-9EE97AA97CCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47BF5CA-CCA4-42B2-8181-CD82E7C309B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaveBalance" sheetId="1" r:id="rId1"/>
@@ -1978,9 +1978,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2066,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>145</v>
@@ -2134,7 +2134,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>146</v>
@@ -2202,7 +2202,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>147</v>
@@ -2270,7 +2270,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>148</v>
@@ -2338,7 +2338,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>149</v>
@@ -2406,7 +2406,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>150</v>
@@ -2474,7 +2474,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>151</v>
@@ -2542,7 +2542,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>152</v>
@@ -2610,7 +2610,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>276</v>
@@ -2678,7 +2678,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>153</v>
@@ -2746,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>154</v>
@@ -2814,7 +2814,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>155</v>
@@ -2882,7 +2882,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>156</v>
@@ -2950,7 +2950,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>157</v>
@@ -3018,7 +3018,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>158</v>
@@ -3086,7 +3086,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>159</v>
@@ -3154,7 +3154,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>160</v>
@@ -3222,7 +3222,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>161</v>
@@ -3290,7 +3290,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>162</v>
@@ -3358,7 +3358,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>163</v>
@@ -3426,7 +3426,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>164</v>
@@ -3494,7 +3494,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>165</v>
@@ -3562,7 +3562,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>166</v>
@@ -3630,7 +3630,7 @@
         <v>45</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>167</v>
@@ -3698,7 +3698,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>168</v>
@@ -3766,7 +3766,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>169</v>
@@ -3834,7 +3834,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>170</v>
@@ -3902,7 +3902,7 @@
         <v>49</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>171</v>
@@ -3970,7 +3970,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>172</v>
@@ -4038,7 +4038,7 @@
         <v>51</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>173</v>
@@ -4106,7 +4106,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>174</v>
@@ -4174,7 +4174,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>175</v>
@@ -4242,7 +4242,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>176</v>
@@ -4310,7 +4310,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>177</v>
@@ -4378,7 +4378,7 @@
         <v>56</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>178</v>
@@ -4446,7 +4446,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>179</v>
@@ -4514,7 +4514,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>180</v>
@@ -4582,7 +4582,7 @@
         <v>59</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>181</v>
@@ -4650,7 +4650,7 @@
         <v>60</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>182</v>
@@ -4718,7 +4718,7 @@
         <v>61</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>183</v>
@@ -4786,7 +4786,7 @@
         <v>62</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>184</v>
@@ -7642,7 +7642,7 @@
         <v>104</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>226</v>
@@ -7710,7 +7710,7 @@
         <v>105</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>227</v>
@@ -7778,7 +7778,7 @@
         <v>106</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>228</v>
@@ -7846,7 +7846,7 @@
         <v>107</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>229</v>
@@ -7914,7 +7914,7 @@
         <v>108</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>230</v>
@@ -7982,7 +7982,7 @@
         <v>109</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>231</v>
@@ -8050,7 +8050,7 @@
         <v>110</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>232</v>
@@ -8118,7 +8118,7 @@
         <v>111</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>233</v>
@@ -8186,7 +8186,7 @@
         <v>112</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>234</v>
@@ -8254,7 +8254,7 @@
         <v>113</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>235</v>
@@ -8322,7 +8322,7 @@
         <v>114</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>236</v>
@@ -8390,7 +8390,7 @@
         <v>115</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>237</v>
@@ -8458,7 +8458,7 @@
         <v>116</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>238</v>
@@ -8526,7 +8526,7 @@
         <v>117</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>239</v>
@@ -8594,7 +8594,7 @@
         <v>118</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>240</v>
@@ -8662,7 +8662,7 @@
         <v>119</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>241</v>
@@ -8730,7 +8730,7 @@
         <v>120</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>242</v>
@@ -8798,7 +8798,7 @@
         <v>121</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>243</v>
@@ -10440,8 +10440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F6D715-F1A2-4992-BE3D-118FEE3675AA}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47BF5CA-CCA4-42B2-8181-CD82E7C309B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1C7AC-5BD5-4122-A0F9-8ACF8D640F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaveBalance" sheetId="1" r:id="rId1"/>
@@ -1978,9 +1978,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10440,8 +10440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F6D715-F1A2-4992-BE3D-118FEE3675AA}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
